--- a/docgen/output.xlsx
+++ b/docgen/output.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ns9="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns10="http://schemas.microsoft.com/office/excel/2008/2/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ns9="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns10="http://schemas.microsoft.com/office/excel/2008/2/main" count="11" uniqueCount="10">
   <si>
     <t>Col 1</t>
   </si>
